--- a/江西/导出模板/市场化,省间外送合同分析结果.xlsx
+++ b/江西/导出模板/市场化,省间外送合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED4FEDB-3681-425A-8C8D-DFF50CC9AE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D507C729-47F6-4785-95C3-A4A2C6137311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-95.338458882543307</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>101068.61425806455</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="F12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="G12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="H12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="I12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="J12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="K12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="L12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="M12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="N12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="O12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="P12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="Q12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="R12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="S12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="T12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="U12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="V12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="W12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="X12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="Y12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="Z12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="AA12">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>4211.1922607526885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>297.10322580645158</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="F13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="G13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="H13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="I13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="J13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="K13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="L13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="M13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="N13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="O13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="P13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="Q13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="R13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="S13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="T13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="U13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="V13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="W13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="X13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="Y13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="Z13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="AA13">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>12.379301075268817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>340.18013094178212</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="F14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="G14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="H14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="I14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="J14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="K14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="L14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="M14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="N14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="O14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="P14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="Q14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="R14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="S14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="T14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="U14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="V14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="W14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="X14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="Y14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="Z14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="AA14">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>340.18013094178195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.23453139137405</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>360.23257510694663</v>
+      </c>
+      <c r="F15">
+        <v>454.91714335736464</v>
+      </c>
+      <c r="G15">
+        <v>381.23622101040149</v>
+      </c>
+      <c r="H15">
+        <v>299.02388010032354</v>
+      </c>
+      <c r="I15">
+        <v>352.68244207509071</v>
+      </c>
+      <c r="J15">
+        <v>363.65170737334694</v>
+      </c>
+      <c r="K15">
+        <v>396.23033832055762</v>
+      </c>
+      <c r="L15">
+        <v>539.25022936526898</v>
+      </c>
+      <c r="M15">
+        <v>484.25081024299141</v>
+      </c>
+      <c r="N15">
+        <v>497.53867673883309</v>
+      </c>
+      <c r="O15">
+        <v>412.33932981911363</v>
+      </c>
+      <c r="P15">
+        <v>390.2393270504441</v>
+      </c>
+      <c r="Q15">
+        <v>396.08403522724802</v>
+      </c>
+      <c r="R15">
+        <v>411.675997725348</v>
+      </c>
+      <c r="S15">
+        <v>427.16855296301929</v>
+      </c>
+      <c r="T15">
+        <v>476.16561171310059</v>
+      </c>
+      <c r="U15">
+        <v>451.06153691016488</v>
+      </c>
+      <c r="V15">
+        <v>506.40116465983363</v>
+      </c>
+      <c r="W15">
+        <v>536.90847565742331</v>
+      </c>
+      <c r="X15">
+        <v>553.10636506264802</v>
+      </c>
+      <c r="Y15">
+        <v>546.33756674665051</v>
+      </c>
+      <c r="Z15">
+        <v>592.18463532279429</v>
+      </c>
+      <c r="AA15">
+        <v>544.60783593190149</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>432.33429491216259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-110.05440044959192</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>-20.052444165164673</v>
+      </c>
+      <c r="F16">
+        <v>-114.73701241558268</v>
+      </c>
+      <c r="G16">
+        <v>-41.05609006861954</v>
+      </c>
+      <c r="H16">
+        <v>41.156250841458416</v>
+      </c>
+      <c r="I16">
+        <v>-12.502311133308751</v>
+      </c>
+      <c r="J16">
+        <v>-23.471576431564984</v>
+      </c>
+      <c r="K16">
+        <v>-56.050207378775667</v>
+      </c>
+      <c r="L16">
+        <v>-199.07009842348702</v>
+      </c>
+      <c r="M16">
+        <v>-144.07067930120945</v>
+      </c>
+      <c r="N16">
+        <v>-157.35854579705114</v>
+      </c>
+      <c r="O16">
+        <v>-72.159198877331676</v>
+      </c>
+      <c r="P16">
+        <v>-50.05919610866215</v>
+      </c>
+      <c r="Q16">
+        <v>-55.903904285466069</v>
+      </c>
+      <c r="R16">
+        <v>-71.495866783566044</v>
+      </c>
+      <c r="S16">
+        <v>-86.988422021237341</v>
+      </c>
+      <c r="T16">
+        <v>-135.98548077131863</v>
+      </c>
+      <c r="U16">
+        <v>-110.88140596838292</v>
+      </c>
+      <c r="V16">
+        <v>-166.22103371805167</v>
+      </c>
+      <c r="W16">
+        <v>-196.72834471564136</v>
+      </c>
+      <c r="X16">
+        <v>-212.92623412086607</v>
+      </c>
+      <c r="Y16">
+        <v>-206.15743580486856</v>
+      </c>
+      <c r="Z16">
+        <v>-252.00450438101234</v>
+      </c>
+      <c r="AA16">
+        <v>-204.42770499011954</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-92.154163970380637</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>101068.61425806455</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="F8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="G8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="H8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="I8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="J8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="K8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="L8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="M8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="N8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="O8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="P8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="Q8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="R8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="S8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="T8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="U8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="V8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="W8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="X8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="Y8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="Z8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="AA8">
+        <v>4211.1922607526885</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4211.1922607526885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>133766.13164583332</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>4459.4275043682792</v>
+      </c>
+      <c r="F9">
+        <v>5631.5562819220422</v>
+      </c>
+      <c r="G9">
+        <v>4719.4379606854836</v>
+      </c>
+      <c r="H9">
+        <v>3701.7066404569891</v>
+      </c>
+      <c r="I9">
+        <v>4365.9621344086027</v>
+      </c>
+      <c r="J9">
+        <v>4501.7539721102148</v>
+      </c>
+      <c r="K9">
+        <v>4905.0546532258059</v>
+      </c>
+      <c r="L9">
+        <v>6675.54094422043</v>
+      </c>
+      <c r="M9">
+        <v>5994.6865759408593</v>
+      </c>
+      <c r="N9">
+        <v>6159.1810759408609</v>
+      </c>
+      <c r="O9">
+        <v>5104.4727090053766</v>
+      </c>
+      <c r="P9">
+        <v>4830.8901209677424</v>
+      </c>
+      <c r="Q9">
+        <v>4903.2435231854834</v>
+      </c>
+      <c r="R9">
+        <v>5096.2611213037635</v>
+      </c>
+      <c r="S9">
+        <v>5288.048127016129</v>
+      </c>
+      <c r="T9">
+        <v>5894.5974690860203</v>
+      </c>
+      <c r="U9">
+        <v>5583.8265688844094</v>
+      </c>
+      <c r="V9">
+        <v>6268.8924821908595</v>
+      </c>
+      <c r="W9">
+        <v>6646.5516700268818</v>
+      </c>
+      <c r="X9">
+        <v>6847.0702197580649</v>
+      </c>
+      <c r="Y9">
+        <v>6763.2772274865592</v>
+      </c>
+      <c r="Z9">
+        <v>7330.8318928091394</v>
+      </c>
+      <c r="AA9">
+        <v>6741.8643689516121</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5351.99640188172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>-248.23524361559066</v>
+      </c>
+      <c r="F10">
+        <v>-1420.3640211693537</v>
+      </c>
+      <c r="G10">
+        <v>-508.24569993279511</v>
+      </c>
+      <c r="H10">
+        <v>509.48562029569939</v>
+      </c>
+      <c r="I10">
+        <v>-154.76987365591413</v>
+      </c>
+      <c r="J10">
+        <v>-290.56171135752629</v>
+      </c>
+      <c r="K10">
+        <v>-693.86239247311732</v>
+      </c>
+      <c r="L10">
+        <v>-2464.3486834677415</v>
+      </c>
+      <c r="M10">
+        <v>-1783.4943151881707</v>
+      </c>
+      <c r="N10">
+        <v>-1947.9888151881723</v>
+      </c>
+      <c r="O10">
+        <v>-893.28044825268807</v>
+      </c>
+      <c r="P10">
+        <v>-619.69786021505388</v>
+      </c>
+      <c r="Q10">
+        <v>-692.05126243279483</v>
+      </c>
+      <c r="R10">
+        <v>-885.06886055107498</v>
+      </c>
+      <c r="S10">
+        <v>-1076.8558662634405</v>
+      </c>
+      <c r="T10">
+        <v>-1683.4052083333318</v>
+      </c>
+      <c r="U10">
+        <v>-1372.6343081317209</v>
+      </c>
+      <c r="V10">
+        <v>-2057.700221438171</v>
+      </c>
+      <c r="W10">
+        <v>-2435.3594092741932</v>
+      </c>
+      <c r="X10">
+        <v>-2635.8779590053764</v>
+      </c>
+      <c r="Y10">
+        <v>-2552.0849667338707</v>
+      </c>
+      <c r="Z10">
+        <v>-3119.6396320564509</v>
+      </c>
+      <c r="AA10">
+        <v>-2530.6721081989235</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1140.8041411290314</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>435.51858982432526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>297.10322580645158</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="F8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="G8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="H8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="I8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="J8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="K8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="L8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="M8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="N8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="O8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="P8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="Q8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="R8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="S8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="T8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="U8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="V8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="W8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="X8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="Y8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="Z8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="AA8">
+        <v>12.379301075268817</v>
+      </c>
+      <c r="AB8">
+        <v>12.379301075268817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>340.18013094178212</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="F9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="G9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="H9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="I9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="J9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="K9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="L9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="M9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="N9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="O9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="P9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="Q9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="R9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="S9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="T9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="U9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="V9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="W9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="X9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="Y9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="Z9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="AA9">
+        <v>340.18013094178195</v>
+      </c>
+      <c r="AB9">
+        <v>340.18013094178195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.23453139137405</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>360.23257510694663</v>
+      </c>
+      <c r="F10">
+        <v>454.91714335736464</v>
+      </c>
+      <c r="G10">
+        <v>381.23622101040149</v>
+      </c>
+      <c r="H10">
+        <v>299.02388010032354</v>
+      </c>
+      <c r="I10">
+        <v>352.68244207509071</v>
+      </c>
+      <c r="J10">
+        <v>363.65170737334694</v>
+      </c>
+      <c r="K10">
+        <v>396.23033832055762</v>
+      </c>
+      <c r="L10">
+        <v>539.25022936526898</v>
+      </c>
+      <c r="M10">
+        <v>484.25081024299141</v>
+      </c>
+      <c r="N10">
+        <v>497.53867673883309</v>
+      </c>
+      <c r="O10">
+        <v>412.33932981911363</v>
+      </c>
+      <c r="P10">
+        <v>390.2393270504441</v>
+      </c>
+      <c r="Q10">
+        <v>396.08403522724802</v>
+      </c>
+      <c r="R10">
+        <v>411.675997725348</v>
+      </c>
+      <c r="S10">
+        <v>427.16855296301929</v>
+      </c>
+      <c r="T10">
+        <v>476.16561171310059</v>
+      </c>
+      <c r="U10">
+        <v>451.06153691016488</v>
+      </c>
+      <c r="V10">
+        <v>506.40116465983363</v>
+      </c>
+      <c r="W10">
+        <v>536.90847565742331</v>
+      </c>
+      <c r="X10">
+        <v>553.10636506264802</v>
+      </c>
+      <c r="Y10">
+        <v>546.33756674665051</v>
+      </c>
+      <c r="Z10">
+        <v>592.18463532279429</v>
+      </c>
+      <c r="AA10">
+        <v>544.60783593190149</v>
+      </c>
+      <c r="AB10">
+        <v>432.33429491216259</v>
       </c>
     </row>
   </sheetData>
